--- a/ipl.xlsx
+++ b/ipl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
   <si>
     <t>Match</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>RCB vs KXIP</t>
+  </si>
+  <si>
+    <t>KKR vs RR</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>CSK vs MI</t>
+  </si>
+  <si>
+    <t>Aaron</t>
   </si>
 </sst>
 </file>
@@ -703,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -808,11 +820,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <f t="shared" ref="I3:I43" si="0">ISNUMBER(SEARCH("MI",A3))</f>
+        <f t="shared" ref="I3:I45" si="0">ISNUMBER(SEARCH("MI",A3))</f>
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <f t="shared" ref="J3:J43" si="1">ISNUMBER(SEARCH("DC",A3))</f>
+        <f t="shared" ref="J3:J45" si="1">ISNUMBER(SEARCH("DC",A3))</f>
         <v>0</v>
       </c>
     </row>
@@ -2177,12 +2189,54 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
+      <c r="H45" s="5"/>
+      <c r="I45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" s="2"/>

--- a/ipl.xlsx
+++ b/ipl.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="113">
   <si>
     <t>Match</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Aaron</t>
+  </si>
+  <si>
+    <t>Rohit</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2226,9 +2229,27 @@
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>90</v>
+      </c>
       <c r="I45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2301,11 +2322,11 @@
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H61">
         <f>SUM(H2:H60)</f>
-        <v>1725.9450000000002</v>
+        <v>1815.9450000000002</v>
       </c>
       <c r="I61">
         <f>2200 - H61</f>
-        <v>474.05499999999984</v>
+        <v>384.05499999999984</v>
       </c>
     </row>
   </sheetData>
